--- a/Docs/Project/taskboard.xlsx
+++ b/Docs/Project/taskboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BZ241WX\Documents\InfNet\CursoPosDataScience\mit_ds_course\Docs\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4565732-CB96-4EBE-87F9-7B94DA817803}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFF8975-C808-4D80-8D51-450B4A262976}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{EFC1725C-2304-4691-9531-9BACDA3C9584}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Story</t>
   </si>
@@ -120,6 +120,36 @@
   </si>
   <si>
     <t>Distribuição das variaveis em grupos</t>
+  </si>
+  <si>
+    <t>Verificar se as tabelas tem dado faltante, quantificar por variavel (%). Avaliar a faixa dinamica de cada variavel.</t>
+  </si>
+  <si>
+    <t>Histogramas com as distribuicoes das variaveis. Utilizar tambem KDE. Analisar padrões existentes</t>
+  </si>
+  <si>
+    <t>Histogramas e KDE para diferentes grupos. Classificao sao as classes. Regressao, binarizar a variavel de saida para formar os grupos. Eventualmente variaveis que nao sejam continuas</t>
+  </si>
+  <si>
+    <t>Calcular os coeficientes de correlacao e scatter-plot.</t>
+  </si>
+  <si>
+    <t>Calcular os box-plot para cada variavel no mesmo graficao (se aplicavel): identificar outliers</t>
+  </si>
+  <si>
+    <t>Plot-scatter para cada variavel (pandas)</t>
+  </si>
+  <si>
+    <t>Reefetuar as analises com a normalizacao</t>
+  </si>
+  <si>
+    <t>Reefetuar as analises com a normalizacao (onde aplicavel)</t>
+  </si>
+  <si>
+    <t>Unificar as bases de dados de Wine</t>
+  </si>
+  <si>
+    <t>Unificar as bases de vinho branco e tinto e adicionar a informacao branco/tinto como variavel (coluna)</t>
   </si>
 </sst>
 </file>
@@ -155,13 +185,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -175,15 +236,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64C095BF-52B4-4D2B-B569-688493D01887}" name="Table1" displayName="Table1" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{8F24B1FF-F8FC-45B9-9C3C-70CF193FBC52}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64C095BF-52B4-4D2B-B569-688493D01887}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:F15" xr:uid="{8F24B1FF-F8FC-45B9-9C3C-70CF193FBC52}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6F22CA81-2B39-452D-9511-688464A1750E}" name="Story"/>
-    <tableColumn id="2" xr3:uid="{470B2354-1DF9-47A6-9B6F-D5D8F763C353}" name="Atividade"/>
-    <tableColumn id="3" xr3:uid="{B6F2C449-3EFB-4533-ACDC-33810BFD1795}" name="Descricao"/>
-    <tableColumn id="4" xr3:uid="{4202C834-7E57-4A00-9F3B-F115D691B94D}" name="Definition of Ready"/>
-    <tableColumn id="5" xr3:uid="{52A6743B-E232-475E-BE88-FAB035C36C9A}" name="Definition of Done"/>
-    <tableColumn id="6" xr3:uid="{41C7F73C-8CDE-4A2A-A73C-DEFE88975B5B}" name="Esforço"/>
+    <tableColumn id="1" xr3:uid="{6F22CA81-2B39-452D-9511-688464A1750E}" name="Story" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{470B2354-1DF9-47A6-9B6F-D5D8F763C353}" name="Atividade" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B6F2C449-3EFB-4533-ACDC-33810BFD1795}" name="Descricao" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{4202C834-7E57-4A00-9F3B-F115D691B94D}" name="Definition of Ready" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{52A6743B-E232-475E-BE88-FAB035C36C9A}" name="Definition of Done" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{41C7F73C-8CDE-4A2A-A73C-DEFE88975B5B}" name="Esforço" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -486,17 +547,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC68CFBD-2DA0-4910-875F-F7F64F0C64ED}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.453125" customWidth="1"/>
     <col min="2" max="2" width="40.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.36328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.7265625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -509,7 +570,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -523,223 +584,272 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14">
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Docs/Project/taskboard.xlsx
+++ b/Docs/Project/taskboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BZ241WX\Documents\InfNet\CursoPosDataScience\mit_ds_course\Docs\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFF8975-C808-4D80-8D51-450B4A262976}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C1FA7-BE62-4F2C-8590-9F5B01084A95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{EFC1725C-2304-4691-9531-9BACDA3C9584}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="141">
   <si>
     <t>Story</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Definition of Done</t>
   </si>
   <si>
-    <t>Esforço</t>
-  </si>
-  <si>
     <t>Entendimento de negócio</t>
   </si>
   <si>
@@ -150,6 +147,366 @@
   </si>
   <si>
     <t>Unificar as bases de vinho branco e tinto e adicionar a informacao branco/tinto como variavel (coluna)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>Modelagem</t>
+  </si>
+  <si>
+    <t>Utilizar a base de dados normalizada para treinar um modelo de regressao logistica utilizando o sklearn.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Calcular o conjunto de metricas do modelo</t>
+  </si>
+  <si>
+    <t>Utilizar o sklearn.metrics para o calculo das metricas de desempenho de cada problema</t>
+  </si>
+  <si>
+    <t>Aplicar o modelo treinado no conjunto de treino e teste, separadamente.</t>
+  </si>
+  <si>
+    <t>Aplicar o modelo treinado para os dados do conjunto de treino e do conjunto de teste</t>
+  </si>
+  <si>
+    <t>Avaliar conjunto de treino e teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizar o resultado do modelo para calcular o conjunto de metricas nos grupos de treino e teste separadamente </t>
+  </si>
+  <si>
+    <t>Treinar um modelo de arvore de decisao</t>
+  </si>
+  <si>
+    <t>Utilizar a base de treino para treinar o modelo de arvore de decisao do sklearn.tree</t>
+  </si>
+  <si>
+    <t>Aplicar o modelo treinado no conjunto de dados</t>
+  </si>
+  <si>
+    <t>Aplicar o modelo treinado aos dados</t>
+  </si>
+  <si>
+    <t>Avaliar o modelo de arvore de decisao</t>
+  </si>
+  <si>
+    <t>Treinar um modelo SGD</t>
+  </si>
+  <si>
+    <t>Utilizar o sklearn o treinamento do modelo SGD utilizando os dados do conjunto de treino</t>
+  </si>
+  <si>
+    <t>Avaliar o modelo de SGD</t>
+  </si>
+  <si>
+    <t>Normalizador desenvolvido no ambiente</t>
+  </si>
+  <si>
+    <t>Modelo treinado</t>
+  </si>
+  <si>
+    <t>1) Comando para gerar a estimativa dos modelos treinados
+2) Comando para visualizar a distribuicao das estimativas do modelo utilizando o seaborn</t>
+  </si>
+  <si>
+    <t>1) Comando para calcular as metricas de desempenho utilizando as estimativas do modelo
+2) Comando para colocar todas as metricas calculadas numa tabela do pandas.</t>
+  </si>
+  <si>
+    <t>1) Comando para estimar a resposta do modelo para o conjunto de treino
+2) Comando para estimar a resposta do modelo para o conjunto de teste
+3) Comando para o grafico das distribuicoes da estimativa do modelo para o conjunto de treino e teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Comando para estimar as metricas utilizadas no grupo de treino e teste
+2) Comando para colocar todas as metricas calculadas numa tabela pandas </t>
+  </si>
+  <si>
+    <t>Treinar um modelo de kNN</t>
+  </si>
+  <si>
+    <t>Utilisar os dados do conjunto de treino para ajustar o modelo de kNN.</t>
+  </si>
+  <si>
+    <t>Avaliar o modelo kNN</t>
+  </si>
+  <si>
+    <t>1) Comando para treinar o modelo kNN</t>
+  </si>
+  <si>
+    <t>1) Comando para calcular as estimativas do modelo para os conjuntos
+2) Comando para calcular as metricas de desempenho para os conjuntos
+3) Comando para colocar as metricas numa tabela pandas
+4) Comando para visualizar a distribuicao da resposta do modelo para os conjuntos</t>
+  </si>
+  <si>
+    <t>Avaliar os modelos pela curva ROC</t>
+  </si>
+  <si>
+    <t>Utilizar o conjunto de teste para calculo da curva ROC</t>
+  </si>
+  <si>
+    <t>Utilizar o conjunto de treino e teste para avaliar o modelo</t>
+  </si>
+  <si>
+    <t>1) Comando para calcular a curva ROC do conjunto de teste de cada modelo
+2) Comando para visualizar a curva ROC de todos os modelos</t>
+  </si>
+  <si>
+    <t>Aplicar validacao cruzada no modelo</t>
+  </si>
+  <si>
+    <t>Utilizar validacao cruzada para estimar o modelo</t>
+  </si>
+  <si>
+    <t>Avaliar modelo com validacao cruzada</t>
+  </si>
+  <si>
+    <t>Estimar o desempenho do modelo com validacao cruzada</t>
+  </si>
+  <si>
+    <t>Aplicar Grid Search nos parametros dos modelos</t>
+  </si>
+  <si>
+    <t>Utilizar o grid search do sklearn para estimar os melhores parametros para os modelos.</t>
+  </si>
+  <si>
+    <t>Estimar as metricas de desempenho para os resultados do grid-search</t>
+  </si>
+  <si>
+    <t>Avaliar os modelos ajustados com grid-search</t>
+  </si>
+  <si>
+    <t>1) Comando para calcular o conjunto de metricas dos diferentes modelos
+2) Comando para colocar em tabela todos os resultados
+3) Comando para calculo e visualizacao das curvas ROC de todos os modelos para o conjunto de teste
+4) Comando para colocar em tabela pandas os parametros escolhidos pelo grid-search</t>
+  </si>
+  <si>
+    <t>Aplicar o método de PCA como pré-processamento</t>
+  </si>
+  <si>
+    <t>Estimar os componentes principais dos dados de treinamento.</t>
+  </si>
+  <si>
+    <t>1) Clonar notebook anterior para Code/Model/modelagem_pca.ipynb
+2) Adicionar comando para a estimacao dos componentes principais apos a normalizacao dos dados
+3) Comando para aplicar os componentes principais nos dados de treino e teste</t>
+  </si>
+  <si>
+    <t>Escolher a quantidade de componentes principais</t>
+  </si>
+  <si>
+    <t>Estimar a quantidade de componentes principais utilizados na modelagem</t>
+  </si>
+  <si>
+    <t>1) Comando para visualizacao da curva de carga dos componentes
+2) Comando para filtrar os componentes principais relevantes</t>
+  </si>
+  <si>
+    <t>Modelagem considerando o pré-processamento por PCA</t>
+  </si>
+  <si>
+    <t>Treinar o modelo apos a transformacao pela PCA, calculando as metricas desempenho para conjunto de treino e teste</t>
+  </si>
+  <si>
+    <t>1) Comando para treinamento do modelo apos o pré-processamento
+2) Comando para calcular as estimativas do modelo para treino/teste
+3) Comando para visualizar as metricas em tabela pandas
+4) Comando para visualizar as distribuicoes da saida do modelo
+5) Comando para visualizar a curva ROC dos modelos para o conjunto de teste</t>
+  </si>
+  <si>
+    <t>Ajustar codigos para salvar os modelos</t>
+  </si>
+  <si>
+    <t>1) Clonar notebook anterior para Code/Model/modelagem_final.ipynb
+2) Ajustar notebook para utilizar o resultado com ou sem PCA
+3) Comando para exportar o modelo para Data/Model/modelo_final.jbl</t>
+  </si>
+  <si>
+    <t>Salvar o modelo utilizando a biblioteca sklearn.externals.joblib</t>
+  </si>
+  <si>
+    <t>Codigo para escoragem de uma nova base de dados</t>
+  </si>
+  <si>
+    <t>Criar notebook para utilizar os modelos ja salvos e aplicar a uma nova base de dados</t>
+  </si>
+  <si>
+    <t>1) Clonar o notebook anterior para Code/Model/escoragem_modelo.ipynb
+2) Comando para leitura do modelo final
+3) Ajuste do notebook para fazer a escoragem utilizando o novo modelo</t>
+  </si>
+  <si>
+    <t>Treinar um modelo de SVM</t>
+  </si>
+  <si>
+    <t>Avaliar o modelo SVM</t>
+  </si>
+  <si>
+    <t>Utilisar os dados do conjunto de treino para ajustar o modelo de SVM.</t>
+  </si>
+  <si>
+    <t>1) Comando para treinar o modelo SVM</t>
+  </si>
+  <si>
+    <t>Criacao de modelo por AutoML</t>
+  </si>
+  <si>
+    <t>Utilizar o automl do sklearn para automaticamente treinar os modelos</t>
+  </si>
+  <si>
+    <t>1) Clonar notebook anterior para Code/Model/modelagem_automl.ipynb
+2) Alterar o notebook para utilizar o automl</t>
+  </si>
+  <si>
+    <t>Avaliacao do modelo por AutoML</t>
+  </si>
+  <si>
+    <t>Explorar o resultado to automl</t>
+  </si>
+  <si>
+    <t>1) Comando para visualizar em tabela do pandas os resultados de todos os modelos
+2) Comando para visualizar os resultaos de todos os modelos como um grafico de barras horizontais
+3) Atualizar resultados de metricas
+4) Atualizar resultados das curvas de desempenho</t>
+  </si>
+  <si>
+    <t>Trienamento de modelo de regressao logistica (vinho), ou linear (airbnb)</t>
+  </si>
+  <si>
+    <t>Documentacao</t>
+  </si>
+  <si>
+    <t>Documentacao do racional do projeto</t>
+  </si>
+  <si>
+    <t>Atualizar a documentacao da carta do projeto com as modelagens desenvolvidas e os resultados</t>
+  </si>
+  <si>
+    <t>1) Criar o arquivo Docs/Model/Charter.md
+2) Documentar no arquivo os detalhes das etapas da modelagem realizadas
+3) Documentar os primeiros resultados</t>
+  </si>
+  <si>
+    <t>Aplicar o FastICA nas amostras de dados</t>
+  </si>
+  <si>
+    <t>Estimar os componentes independentes dos dados utilizando o conjunto de treino</t>
+  </si>
+  <si>
+    <t>1) Clonar o notebook anterior para Code/Model/modelagem_fastica.ipynb
+2) Atualizar o notebook para aplicar o fastICA no lugar da PCA
+3) Atualizar os resultados</t>
+  </si>
+  <si>
+    <t>Aplicar os modelos de ensemble</t>
+  </si>
+  <si>
+    <t>Utilizar os modelos de RandomForest, ExtraTrees</t>
+  </si>
+  <si>
+    <t>Análise Pós-Modelagem</t>
+  </si>
+  <si>
+    <t>Visualizacoes</t>
+  </si>
+  <si>
+    <t>Escoragem/Operacao</t>
+  </si>
+  <si>
+    <t>Monitoramento do modelo</t>
+  </si>
+  <si>
+    <t>Analise dos resultados</t>
+  </si>
+  <si>
+    <t>Avaliacao de features</t>
+  </si>
+  <si>
+    <t>Criacao de novas Features</t>
+  </si>
+  <si>
+    <t>Apresentacao dos resultados</t>
+  </si>
+  <si>
+    <t>Testes finais</t>
+  </si>
+  <si>
+    <t>Sprint Review</t>
+  </si>
+  <si>
+    <t>Relatorios e Dashboards</t>
+  </si>
+  <si>
+    <t>Operação</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Documentar os primeiros resultados do modelo</t>
+  </si>
+  <si>
+    <t>Atualizar a documentacao da carta do projeto com os resultados preliminares da modelagem.</t>
+  </si>
+  <si>
+    <t>1) Adicionar à carta do projeto os comentários sobre os resultados testados até aqui</t>
+  </si>
+  <si>
+    <t>1) Criação de notebook Code/Model/modelagem_preliminar.ipynb
+2) Comando carregando a base processada
+3) Comando para selecionar os dados que serao utilizados
+4) Comando para normalizacao dos dados
+5) Comando para ajuste dos dados para o treinamento
+6) Comando para o treinamento do modelo</t>
+  </si>
+  <si>
+    <t>1) Comando para colocar em tabela o resultado do treinamento de cada set de validacao cruzada
+2) Comando para calcular as metricas de desempenho
+3) Comando para visualizacao das métricas em tabela pandas
+4) Atualizar a curva ROC com os resultados do modelo com validacao cruzadas</t>
+  </si>
+  <si>
+    <t>1) Clonar notebook anterior para Code/Model/modelagem_cv.ipynb
+2) Ajustar comando de treinamento do modelo
+3) Comando para visualizar as curvas de aprendizado dos modelos</t>
+  </si>
+  <si>
+    <t>1) Clonar o notebook anterior para Code/Model/modelagem_cv_grid_arvore.ipynb
+2) Comando para criar o modelo de arvore de decisao treinado com o conjunto de treino;</t>
+  </si>
+  <si>
+    <t>1) Comando para estimar a resposta do modelo para o conjunto de treino e teste;
+2) Comando para mostrar a distribuicao da estimativa do modelo para o conjunto de treino e teste;
+3) Comando para visualização da árvore usando o GraphViz
+4) Adicionar as metrica de desempenho da árvore na tabela de desempenho
+5) Criar as curvas de aprendizado para o modelo de árvore
+6) Criar as curvas de sensibilidade dos parâmetros da árvore</t>
+  </si>
+  <si>
+    <t>1) Clonar o notebook anterior para Code/Model/modelagem_cv_grid.ipynb
+2) Comando para criar o grid-search
+3) Comando para colocar em tabela pandas o resultado de diferentes parametros
+4) Comando para analisar a sensibilidade aos parâmetros do modelo</t>
+  </si>
+  <si>
+    <t>1) Comando para treinar o modelo SGD utilizando o conjunto de treino
+2) Repetir as analises feitas para os outros algoritmos</t>
+  </si>
+  <si>
+    <t>1) Comando para estimar a resposta do modelo para os conjuntos de treino e teste;
+2) Comando para calcular as metricas e colucar numa tabela pandas
+3) Comando para visualizar a distribuição da resposta do modelo para conjunto de treino e teste
+4) Adicionar as metricas do SGD à tabela de desempenho</t>
   </si>
 </sst>
 </file>
@@ -165,12 +522,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -196,25 +565,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -236,15 +632,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64C095BF-52B4-4D2B-B569-688493D01887}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:F15" xr:uid="{8F24B1FF-F8FC-45B9-9C3C-70CF193FBC52}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6F22CA81-2B39-452D-9511-688464A1750E}" name="Story" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{470B2354-1DF9-47A6-9B6F-D5D8F763C353}" name="Atividade" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B6F2C449-3EFB-4533-ACDC-33810BFD1795}" name="Descricao" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4202C834-7E57-4A00-9F3B-F115D691B94D}" name="Definition of Ready" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{52A6743B-E232-475E-BE88-FAB035C36C9A}" name="Definition of Done" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{41C7F73C-8CDE-4A2A-A73C-DEFE88975B5B}" name="Esforço" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64C095BF-52B4-4D2B-B569-688493D01887}" name="Table1" displayName="Table1" ref="A1:H53" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H53" xr:uid="{8F24B1FF-F8FC-45B9-9C3C-70CF193FBC52}"/>
+  <tableColumns count="8">
+    <tableColumn id="9" xr3:uid="{12F19273-FB4D-4151-BD67-9A0F6235ACFD}" name="ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6F22CA81-2B39-452D-9511-688464A1750E}" name="Story" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{470B2354-1DF9-47A6-9B6F-D5D8F763C353}" name="Atividade" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B6F2C449-3EFB-4533-ACDC-33810BFD1795}" name="Descricao" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{049F9568-99CB-4F96-AB16-4E8426A34051}" name="Sprint" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{BDB87DF0-42F6-4CB7-B8F2-A34B5AD75E58}" name="Status" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{4202C834-7E57-4A00-9F3B-F115D691B94D}" name="Definition of Ready" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{52A6743B-E232-475E-BE88-FAB035C36C9A}" name="Definition of Done" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -547,311 +945,1202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC68CFBD-2DA0-4910-875F-F7F64F0C64ED}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="52.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="40.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="52.08984375" style="1"/>
+    <col min="5" max="5" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="3">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="3">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="3">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="3">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="3">
+        <v>6</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="3">
+        <v>6</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="3">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="12" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B39" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="10">
+        <v>6</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="3">
+        <v>6</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>6</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>6</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>6</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
+        <v>7</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
+        <v>7</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <v>8</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Project/taskboard.xlsx
+++ b/Docs/Project/taskboard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="143">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -668,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.1484375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1081,7 +1081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>15</v>
       </c>
@@ -1097,7 +1097,9 @@
       <c r="E17" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="5" t="s">
         <v>48</v>
       </c>
@@ -1105,7 +1107,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="33.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>16</v>
       </c>
@@ -1121,7 +1123,9 @@
       <c r="E18" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G18" s="5" t="s">
         <v>52</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>17</v>
       </c>
@@ -1145,7 +1149,9 @@
       <c r="E19" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="5" t="s">
         <v>52</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>19</v>
       </c>
@@ -1193,13 +1199,15 @@
       <c r="E21" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>20</v>
       </c>
@@ -1215,13 +1223,15 @@
       <c r="E22" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>21</v>
       </c>
@@ -1237,13 +1247,15 @@
       <c r="E23" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>22</v>
       </c>
@@ -1259,7 +1271,9 @@
       <c r="E24" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="4" t="s">
         <v>72</v>
@@ -1287,7 +1301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="44.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <v>24</v>
       </c>
@@ -1303,13 +1317,15 @@
       <c r="E26" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="99.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
         <v>25</v>
       </c>
@@ -1325,13 +1341,15 @@
       <c r="E27" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="77.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
         <v>26</v>
       </c>
@@ -1347,13 +1365,15 @@
       <c r="E28" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="77.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
         <v>27</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="E29" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="4" t="s">
         <v>87</v>
@@ -1419,7 +1441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
         <v>30</v>
       </c>
@@ -1435,13 +1457,15 @@
       <c r="E32" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="77.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
         <v>31</v>
       </c>
@@ -1457,7 +1481,9 @@
       <c r="E33" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="4" t="s">
         <v>97</v>

--- a/Docs/Project/taskboard.xlsx
+++ b/Docs/Project/taskboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfb9b990915f6edd/MIT IA/git/mit_ds_course/Docs/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{70B88BAA-752F-456B-938A-4F6D20DE3B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2DD09D5C-DE7B-4F5E-956D-6645FCE1B33B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{70B88BAA-752F-456B-938A-4F6D20DE3B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FD0F816-4A0F-4128-AD84-9BE33698ED65}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EFC1725C-2304-4691-9531-9BACDA3C9584}"/>
   </bookViews>
@@ -621,7 +621,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>37</v>
